--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24129"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D23CAFC-E9B5-447F-9200-877C1D7ECB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C996B97D-1A53-4602-9BD7-F3B5BD9B40FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="103">
   <si>
     <t>改定履歴</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>タスクテーブル</t>
+  </si>
+  <si>
+    <t>chat_idからchat_user_idに変更</t>
   </si>
   <si>
     <t>users</t>
@@ -359,7 +362,7 @@
     <t>チャットid</t>
   </si>
   <si>
-    <t>chat_id</t>
+    <t>chat_room_id</t>
   </si>
   <si>
     <t>ユーザーid</t>
@@ -886,8 +889,8 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1167,9 +1170,15 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="12.75">
-      <c r="A9" s="7"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="7">
+        <v>44351</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1195,9 +1204,15 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="12.75">
-      <c r="A10" s="7"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="7">
+        <v>44351</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1223,9 +1238,15 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="12.75">
-      <c r="A11" s="7"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="7">
+        <v>44351</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -29797,7 +29818,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -29815,24 +29836,24 @@
         <v>2</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -29840,34 +29861,34 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -29876,31 +29897,31 @@
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="15">
         <v>11</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75">
@@ -29909,31 +29930,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" s="15">
         <v>100</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="J6" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75">
@@ -29942,31 +29963,31 @@
         <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="15">
         <v>100</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="J7" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75">
@@ -29975,31 +29996,31 @@
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="15">
         <v>100</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="J8" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
@@ -30008,31 +30029,31 @@
         <v>5</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" s="15">
         <v>13</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
@@ -30041,31 +30062,31 @@
         <v>6</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="F10" s="15">
         <v>13</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
@@ -30074,31 +30095,31 @@
         <v>7</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F11" s="15">
         <v>1000</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
@@ -30107,13 +30128,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F12" s="15">
         <v>1</v>
@@ -30122,16 +30143,16 @@
         <v>0</v>
       </c>
       <c r="H12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="J12" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
@@ -30140,31 +30161,31 @@
         <v>9</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="J13" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
@@ -30173,31 +30194,31 @@
         <v>10</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>54</v>
-      </c>
       <c r="F14" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="J14" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
@@ -30206,31 +30227,31 @@
         <v>11</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75">
@@ -30239,31 +30260,31 @@
         <v>12</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -30285,7 +30306,7 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
@@ -30307,24 +30328,24 @@
         <v>2</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -30332,34 +30353,34 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
@@ -30368,31 +30389,31 @@
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="15">
         <v>11</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
@@ -30401,31 +30422,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="15">
         <v>11</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="K6" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
@@ -30434,31 +30455,31 @@
         <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="15">
         <v>11</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="K7" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
@@ -30467,31 +30488,31 @@
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="15">
         <v>100</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="J8" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
@@ -30500,31 +30521,31 @@
         <v>5</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="15">
         <v>1000</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
@@ -30533,13 +30554,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="15">
         <v>1</v>
@@ -30548,16 +30569,16 @@
         <v>0</v>
       </c>
       <c r="H10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="J10" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
@@ -30566,13 +30587,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11" s="15">
         <v>1</v>
@@ -30581,16 +30602,16 @@
         <v>0</v>
       </c>
       <c r="H11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="J11" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
@@ -30599,13 +30620,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F12" s="15">
         <v>1</v>
@@ -30614,16 +30635,16 @@
         <v>0</v>
       </c>
       <c r="H12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="J12" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
@@ -30632,31 +30653,31 @@
         <v>9</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="J13" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
@@ -30665,31 +30686,31 @@
         <v>10</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>54</v>
-      </c>
       <c r="F14" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="J14" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
@@ -30743,7 +30764,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:D2"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30762,24 +30783,24 @@
         <v>2</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -30787,34 +30808,34 @@
     </row>
     <row r="4" spans="1:11" ht="12.75">
       <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -30823,31 +30844,31 @@
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="15">
         <v>11</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75">
@@ -30856,31 +30877,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="15">
         <v>11</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="K6" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75">
@@ -30889,31 +30910,31 @@
         <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="15">
         <v>11</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="K7" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75">
@@ -30922,31 +30943,31 @@
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F8" s="15">
         <v>11</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="J8" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
@@ -30955,31 +30976,31 @@
         <v>5</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
@@ -30988,31 +31009,31 @@
         <v>6</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
@@ -31021,31 +31042,31 @@
         <v>7</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
@@ -31054,31 +31075,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
@@ -31087,31 +31108,31 @@
         <v>9</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
@@ -31120,31 +31141,31 @@
         <v>10</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
@@ -31153,31 +31174,31 @@
         <v>11</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75">
@@ -31186,31 +31207,31 @@
         <v>12</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -31234,7 +31255,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31253,24 +31274,24 @@
         <v>2</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -31278,34 +31299,34 @@
     </row>
     <row r="4" spans="1:11" ht="12.75">
       <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -31314,31 +31335,31 @@
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="15">
         <v>11</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75">
@@ -31347,31 +31368,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="15">
         <v>11</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="K6" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75">
@@ -31380,31 +31401,31 @@
         <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="15">
         <v>11</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="K7" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75">
@@ -31413,31 +31434,31 @@
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F8" s="15">
         <v>11</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="K8" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
@@ -31446,31 +31467,31 @@
         <v>5</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="15">
         <v>1000</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="J9" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
@@ -31479,31 +31500,31 @@
         <v>6</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="15">
         <v>100</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
@@ -31512,13 +31533,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11" s="15">
         <v>1</v>
@@ -31527,16 +31548,16 @@
         <v>0</v>
       </c>
       <c r="H11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="J11" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
@@ -31545,31 +31566,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="J12" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
@@ -31578,31 +31599,31 @@
         <v>9</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>54</v>
-      </c>
       <c r="F13" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="J13" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
@@ -31611,31 +31632,31 @@
         <v>10</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
@@ -31644,31 +31665,31 @@
         <v>11</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75">
@@ -31677,31 +31698,31 @@
         <v>12</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -31725,7 +31746,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31744,24 +31765,24 @@
         <v>2</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -31769,34 +31790,34 @@
     </row>
     <row r="4" spans="1:11" ht="12.75">
       <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -31805,31 +31826,31 @@
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="15">
         <v>11</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75">
@@ -31838,31 +31859,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="15">
         <v>11</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="K6" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75">
@@ -31871,31 +31892,31 @@
         <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="15">
         <v>11</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="K7" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75">
@@ -31904,31 +31925,31 @@
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="15">
         <v>11</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="K8" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
@@ -31937,31 +31958,31 @@
         <v>5</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="15">
         <v>11</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="K9" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
@@ -31970,31 +31991,31 @@
         <v>6</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" s="15">
         <v>1000</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="J10" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
@@ -32003,31 +32024,31 @@
         <v>7</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
@@ -32036,13 +32057,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F12" s="15">
         <v>1</v>
@@ -32051,16 +32072,16 @@
         <v>0</v>
       </c>
       <c r="H12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="J12" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
@@ -32069,13 +32090,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F13" s="16">
         <v>1</v>
@@ -32084,16 +32105,16 @@
         <v>0</v>
       </c>
       <c r="H13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="J13" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
@@ -32102,31 +32123,31 @@
         <v>10</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="J14" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
@@ -32135,31 +32156,31 @@
         <v>11</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>54</v>
-      </c>
       <c r="F15" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="J15" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75">
@@ -32168,31 +32189,31 @@
         <v>12</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
